--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-18-xlookup-Complete.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-18-xlookup-Complete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F597E7-415C-4286-A345-48280B2F7D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06392C18-8D64-45CC-92FA-6F5C10071330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="XLOOKUP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>Category</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>Approximate Match</t>
+  </si>
+  <si>
+    <t>exact or next larger</t>
+  </si>
+  <si>
+    <t>exact or next(last) smaller</t>
   </si>
 </sst>
 </file>
@@ -293,8 +302,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -331,7 +340,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,13 +486,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -502,16 +517,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -521,17 +538,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -550,44 +562,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -643,6 +618,48 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -657,14 +674,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B0C8CFB-B9BE-4AD5-B8BD-69D7780C80EF}" name="Apps_List" displayName="Apps_List" ref="A3:E33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B0C8CFB-B9BE-4AD5-B8BD-69D7780C80EF}" name="Apps_List" displayName="Apps_List" ref="A3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A3:E33" xr:uid="{2B0C8CFB-B9BE-4AD5-B8BD-69D7780C80EF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A14490C5-48C4-4F6D-98CE-F5F2A268E58F}" name="Category" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B60884BA-BA54-456D-996B-9284503BC7B8}" name="App" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{5AD06065-EB36-460D-9D93-3A6653126ADB}" name="Type" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B631AB0E-750B-44DC-AC72-F4198C42710C}" name="Revenue" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{9B042F85-9E8E-49EB-98DA-1CEF7857D530}" name="Profit" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A14490C5-48C4-4F6D-98CE-F5F2A268E58F}" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B60884BA-BA54-456D-996B-9284503BC7B8}" name="App" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5AD06065-EB36-460D-9D93-3A6653126ADB}" name="Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B631AB0E-750B-44DC-AC72-F4198C42710C}" name="Revenue" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9B042F85-9E8E-49EB-98DA-1CEF7857D530}" name="Profit" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -939,29 +956,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
   <dimension ref="A3:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.75" style="1"/>
+    <col min="9" max="9" width="11.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1025,7 @@
         <v>Social Media</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1049,7 @@
         <v>Free - Ads</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1066,7 @@
         <v>472365.60000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1090,7 @@
         <v>1457232.4000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1114,7 @@
         <v>3643081</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1114,7 +1131,7 @@
         <v>1350464.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1148,7 @@
         <v>1881897.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,7 +1165,7 @@
         <v>1457232.4000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1182,7 @@
         <v>951809.20000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1182,7 +1199,7 @@
         <v>1072939.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1199,7 +1216,7 @@
         <v>887471.20000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1216,7 +1233,7 @@
         <v>920368</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1233,7 +1250,7 @@
         <v>341904.80000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1250,7 +1267,7 @@
         <v>1733518.4000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1267,7 +1284,7 @@
         <v>1890741.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1284,7 +1301,7 @@
         <v>924747.60000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,7 +1318,7 @@
         <v>436770</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1318,7 +1335,7 @@
         <v>971536.4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1335,7 +1352,7 @@
         <v>1326328</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1369,7 @@
         <v>481472.4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1369,7 +1386,7 @@
         <v>702994.8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1403,7 @@
         <v>1499583.6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1403,7 +1420,7 @@
         <v>1277401.2000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1420,7 +1437,7 @@
         <v>983622.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1437,7 +1454,7 @@
         <v>576270.4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -1454,7 +1471,7 @@
         <v>1033489.2000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1471,7 +1488,7 @@
         <v>875674.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1488,7 +1505,7 @@
         <v>1065098</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1505,7 +1522,7 @@
         <v>1625176.4000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -1544,17 +1561,17 @@
   <dimension ref="A3:C24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" customWidth="1"/>
+    <col min="2" max="2" width="20.8984375" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>48</v>
       </c>
@@ -1565,17 +1582,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>2000</v>
+        <v>1008</v>
       </c>
       <c r="B4" s="14" t="str" cm="1">
-        <f t="array" ref="B4">_xlfn.XLOOKUP(A4,Table2[Emp_Id],Table2[[Employee_Name]:[Department]],"Not Found",0,1)</f>
-        <v>Not Found</v>
-      </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="array" ref="B4:C4">_xlfn.XLOOKUP(A4,Table2[Emp_Id],Table2[[Employee_Name]:[Department]],"Not Found",0,1)</f>
+        <v>Andrea Ingram</v>
+      </c>
+      <c r="C4" s="15" t="str">
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1586,7 +1605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1597,7 +1616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -1608,7 +1627,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1619,7 +1638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -1630,7 +1649,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1004</v>
       </c>
@@ -1641,7 +1660,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1005</v>
       </c>
@@ -1652,7 +1671,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1006</v>
       </c>
@@ -1663,7 +1682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1007</v>
       </c>
@@ -1674,7 +1693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1008</v>
       </c>
@@ -1685,7 +1704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1009</v>
       </c>
@@ -1696,7 +1715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1010</v>
       </c>
@@ -1707,7 +1726,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1011</v>
       </c>
@@ -1718,7 +1737,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1012</v>
       </c>
@@ -1729,7 +1748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1013</v>
       </c>
@@ -1740,7 +1759,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1014</v>
       </c>
@@ -1751,7 +1770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1015</v>
       </c>
@@ -1762,7 +1781,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1016</v>
       </c>
@@ -1783,21 +1802,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C33CF04-7440-481F-8AAD-746A839017DB}">
-  <dimension ref="A5:E13"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>73</v>
       </c>
@@ -1811,7 +1844,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>0.1</v>
       </c>
@@ -1819,14 +1852,18 @@
         <v>12000</v>
       </c>
       <c r="D6" s="19">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="E6" s="20">
         <f>_xlfn.XLOOKUP(D6,B6:B13,A6:A13,,1)</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="21">
+        <f>_xlfn.XLOOKUP(D6,B6:B13,A6:A13,,-1)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>0.12</v>
       </c>
@@ -1834,7 +1871,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>0.15</v>
       </c>
@@ -1842,7 +1879,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>0.18</v>
       </c>
@@ -1850,7 +1887,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>0.2</v>
       </c>
@@ -1858,7 +1895,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>0.25</v>
       </c>
@@ -1866,7 +1903,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>0.3</v>
       </c>
@@ -1874,7 +1911,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>0.4</v>
       </c>
